--- a/spreadsheet/macrofree/waf_checklist.es.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.es.xlsx
@@ -963,7 +963,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J8" s="13" t="n"/>
+      <c r="J8" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="K8" s="19" t="n"/>
       <c r="L8" s="19" t="inlineStr">
         <is>
@@ -1014,7 +1018,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J9" s="13" t="n"/>
+      <c r="J9" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="K9" s="19" t="n"/>
       <c r="L9" s="19" t="inlineStr">
         <is>
@@ -1120,7 +1128,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J11" s="13" t="n"/>
+      <c r="J11" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="K11" s="19" t="n"/>
       <c r="L11" s="19" t="inlineStr">
         <is>
@@ -1556,7 +1568,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J19" s="13" t="n"/>
+      <c r="J19" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="K19" s="19" t="n"/>
       <c r="L19" s="19" t="inlineStr">
         <is>
@@ -1827,7 +1843,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J24" s="13" t="n"/>
+      <c r="J24" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K24" s="19" t="n"/>
       <c r="L24" s="19" t="inlineStr">
         <is>
@@ -1984,7 +2004,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J27" s="13" t="n"/>
+      <c r="J27" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K27" s="19" t="n"/>
       <c r="L27" s="19" t="inlineStr">
         <is>
@@ -2035,7 +2059,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J28" s="13" t="n"/>
+      <c r="J28" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K28" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
@@ -2200,7 +2228,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J31" s="13" t="n"/>
+      <c r="J31" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K31" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
@@ -2255,7 +2287,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J32" s="13" t="n"/>
+      <c r="J32" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K32" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
@@ -2310,7 +2346,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J33" s="13" t="n"/>
+      <c r="J33" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K33" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
@@ -2365,7 +2405,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J34" s="13" t="n"/>
+      <c r="J34" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K34" s="19" t="n"/>
       <c r="L34" s="19" t="inlineStr">
         <is>
@@ -2809,7 +2853,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J42" s="13" t="n"/>
+      <c r="J42" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="K42" s="19" t="n"/>
       <c r="L42" s="19" t="inlineStr">
         <is>
@@ -2915,7 +2963,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J44" s="13" t="n"/>
+      <c r="J44" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K44" s="19" t="n"/>
       <c r="L44" s="19" t="inlineStr">
         <is>
@@ -2966,7 +3018,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J45" s="13" t="n"/>
+      <c r="J45" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K45" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
@@ -3241,7 +3297,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J50" s="13" t="n"/>
+      <c r="J50" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K50" s="19" t="n"/>
       <c r="L50" s="19" t="inlineStr">
         <is>
@@ -3347,7 +3407,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J52" s="13" t="n"/>
+      <c r="J52" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="K52" s="19" t="n"/>
       <c r="L52" s="19" t="inlineStr">
         <is>
@@ -3571,7 +3635,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J56" s="13" t="n"/>
+      <c r="J56" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K56" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
@@ -3626,7 +3694,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J57" s="13" t="n"/>
+      <c r="J57" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K57" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
@@ -4243,7 +4315,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J68" s="13" t="n"/>
+      <c r="J68" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K68" s="19" t="n"/>
       <c r="L68" s="19" t="inlineStr">
         <is>
@@ -4349,7 +4425,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J70" s="13" t="n"/>
+      <c r="J70" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K70" s="19" t="n"/>
       <c r="L70" s="19" t="inlineStr">
         <is>
@@ -4891,7 +4971,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J80" s="13" t="n"/>
+      <c r="J80" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K80" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
@@ -4946,7 +5030,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J81" s="13" t="n"/>
+      <c r="J81" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K81" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
@@ -5056,7 +5144,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J83" s="13" t="n"/>
+      <c r="J83" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K83" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
@@ -5276,7 +5368,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J87" s="13" t="n"/>
+      <c r="J87" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K87" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
@@ -5331,7 +5427,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J88" s="13" t="n"/>
+      <c r="J88" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="K88" s="19" t="n"/>
       <c r="L88" s="19" t="inlineStr">
         <is>
@@ -5433,7 +5533,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J90" s="13" t="n"/>
+      <c r="J90" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K90" s="19" t="n"/>
       <c r="L90" s="19" t="inlineStr">
         <is>
@@ -5484,7 +5588,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J91" s="13" t="n"/>
+      <c r="J91" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K91" s="19" t="n"/>
       <c r="L91" s="19" t="inlineStr">
         <is>
@@ -5637,7 +5745,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J94" s="13" t="n"/>
+      <c r="J94" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="K94" s="19" t="n"/>
       <c r="L94" s="19" t="inlineStr">
         <is>
@@ -5688,7 +5800,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J95" s="13" t="n"/>
+      <c r="J95" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K95" s="19" t="n"/>
       <c r="L95" s="19" t="inlineStr">
         <is>
@@ -5739,7 +5855,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J96" s="13" t="n"/>
+      <c r="J96" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K96" s="19" t="n"/>
       <c r="L96" s="19" t="inlineStr">
         <is>
@@ -5790,7 +5910,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J97" s="13" t="n"/>
+      <c r="J97" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="K97" s="19" t="n"/>
       <c r="L97" s="19" t="inlineStr">
         <is>
@@ -6454,7 +6578,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J109" s="13" t="n"/>
+      <c r="J109" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K109" s="19" t="n"/>
       <c r="L109" s="19" t="inlineStr">
         <is>
@@ -6564,7 +6692,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J111" s="13" t="n"/>
+      <c r="J111" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K111" s="19" t="n"/>
       <c r="L111" s="19" t="inlineStr">
         <is>
@@ -6615,7 +6747,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J112" s="13" t="n"/>
+      <c r="J112" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K112" s="19" t="n"/>
       <c r="L112" s="19" t="inlineStr">
         <is>
@@ -6666,7 +6802,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J113" s="13" t="n"/>
+      <c r="J113" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K113" s="19" t="n"/>
       <c r="L113" s="19" t="inlineStr">
         <is>
@@ -6717,7 +6857,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J114" s="13" t="n"/>
+      <c r="J114" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K114" s="19" t="n"/>
       <c r="L114" s="19" t="inlineStr">
         <is>
@@ -6768,7 +6912,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J115" s="13" t="n"/>
+      <c r="J115" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K115" s="19" t="n"/>
       <c r="L115" s="19" t="inlineStr">
         <is>
@@ -6819,7 +6967,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J116" s="13" t="n"/>
+      <c r="J116" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K116" s="19" t="n"/>
       <c r="L116" s="19" t="inlineStr">
         <is>
@@ -7820,7 +7972,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J135" s="13" t="n"/>
+      <c r="J135" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="K135" s="19" t="n"/>
       <c r="L135" s="19" t="inlineStr">
         <is>
@@ -7871,7 +8027,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J136" s="13" t="n"/>
+      <c r="J136" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="K136" s="19" t="n"/>
       <c r="L136" s="19" t="inlineStr">
         <is>
@@ -7922,7 +8082,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J137" s="13" t="n"/>
+      <c r="J137" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="K137" s="19" t="n"/>
       <c r="L137" s="19" t="inlineStr">
         <is>
@@ -7973,7 +8137,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J138" s="13" t="n"/>
+      <c r="J138" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K138" s="19" t="n"/>
       <c r="L138" s="19" t="inlineStr">
         <is>
@@ -8079,7 +8247,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J140" s="13" t="n"/>
+      <c r="J140" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K140" s="19" t="n"/>
       <c r="L140" s="19" t="inlineStr">
         <is>
@@ -8130,7 +8302,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J141" s="13" t="n"/>
+      <c r="J141" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="K141" s="19" t="n"/>
       <c r="L141" s="19" t="inlineStr">
         <is>
@@ -8181,7 +8357,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J142" s="13" t="n"/>
+      <c r="J142" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K142" s="19" t="n"/>
       <c r="L142" s="19" t="inlineStr">
         <is>
@@ -8232,7 +8412,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J143" s="13" t="n"/>
+      <c r="J143" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="K143" s="19" t="n"/>
       <c r="L143" s="19" t="inlineStr">
         <is>
@@ -8283,7 +8467,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J144" s="13" t="n"/>
+      <c r="J144" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="K144" s="19" t="n"/>
       <c r="L144" s="19" t="inlineStr">
         <is>
@@ -9511,7 +9699,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J168" s="13" t="n"/>
+      <c r="J168" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K168" s="19" t="n"/>
       <c r="L168" s="19" t="inlineStr">
         <is>
